--- a/data/respirometry/deep/final_rates/200_rates.xlsx
+++ b/data/respirometry/deep/final_rates/200_rates.xlsx
@@ -578,16 +578,16 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1405756097560976</v>
       </c>
       <c r="V2">
         <v>0.000247847478474785</v>
       </c>
       <c r="Z2">
-        <v>-0.1150207407778343</v>
+        <v>-0.1046950969272345</v>
       </c>
       <c r="AB2">
-        <v>-464.07872085548</v>
+        <v>-422.4174382225389</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="AD2">
-        <v>-464.07872085548</v>
+        <v>-422.4174382225389</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.144009756097561</v>
       </c>
       <c r="V3">
         <v>0.000151796696538394</v>
       </c>
       <c r="Z3">
-        <v>-0.1551755756868073</v>
+        <v>-0.1446956540206924</v>
       </c>
       <c r="AB3">
-        <v>-1022.259240322524</v>
+        <v>-953.2200457609725</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="AD3">
-        <v>-1022.259240322524</v>
+        <v>-953.2200457609725</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1462634146341464</v>
       </c>
       <c r="V4">
         <v>0.0001561017395888245</v>
       </c>
       <c r="Z4">
-        <v>-0.1157733764032695</v>
+        <v>-0.1096439352270558</v>
       </c>
       <c r="AB4">
-        <v>-741.653339086542</v>
+        <v>-702.3876576639086</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="AD4">
-        <v>-741.653339086542</v>
+        <v>-702.3876576639086</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,16 +839,16 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1500390243902439</v>
       </c>
       <c r="V5">
         <v>0.0001601212440695836</v>
       </c>
       <c r="Z5">
-        <v>-0.11797596079824</v>
+        <v>-0.1146140770504377</v>
       </c>
       <c r="AB5">
-        <v>-736.7914325407779</v>
+        <v>-715.7955692664369</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="AD5">
-        <v>-736.7914325407779</v>
+        <v>-715.7955692664369</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,16 +926,16 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1463707317073171</v>
       </c>
       <c r="V6">
         <v>0.0001600773150588649</v>
       </c>
       <c r="Z6">
-        <v>-0.1102875913628426</v>
+        <v>-0.1045252230381822</v>
       </c>
       <c r="AB6">
-        <v>-688.9645251876369</v>
+        <v>-652.9671177939568</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="AD6">
-        <v>-688.9645251876369</v>
+        <v>-652.9671177939568</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1465658536585366</v>
       </c>
       <c r="V7">
         <v>0.0002004041468986119</v>
       </c>
       <c r="Z7">
-        <v>-0.1587485234095864</v>
+        <v>-0.1506547063620707</v>
       </c>
       <c r="AB7">
-        <v>-792.1419085698868</v>
+        <v>-751.7544356918407</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="AD7">
-        <v>-792.1419085698868</v>
+        <v>-751.7544356918407</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,16 +1100,16 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1449658536585366</v>
       </c>
       <c r="V8">
         <v>0.0002479133719908628</v>
       </c>
       <c r="Z8">
-        <v>-0.1571878056462828</v>
+        <v>-0.147545094730805</v>
       </c>
       <c r="AB8">
-        <v>-634.0432723898256</v>
+        <v>-595.1477870917063</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="AD8">
-        <v>-634.0432723898256</v>
+        <v>-595.1477870917063</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.0003560913128183878</v>
+        <v>0.0003559990850761401</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -1278,16 +1278,16 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1405756097560976</v>
       </c>
       <c r="V10">
         <v>0.000247847478474785</v>
       </c>
       <c r="Z10">
-        <v>0.1411383222291327</v>
+        <v>0.1284680504229015</v>
       </c>
       <c r="AB10">
-        <v>569.4563571825545</v>
+        <v>518.3351116318549</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AD10">
-        <v>569.4563571825545</v>
+        <v>518.3351116318549</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.144009756097561</v>
       </c>
       <c r="V11">
         <v>0.000151796696538394</v>
       </c>
       <c r="Z11">
-        <v>0.1409448502510306</v>
+        <v>0.1314260133893951</v>
       </c>
       <c r="AB11">
-        <v>928.510655799294</v>
+        <v>865.8028559676426</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="AD11">
-        <v>928.510655799294</v>
+        <v>865.8028559676426</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1452,16 +1452,16 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1462634146341464</v>
       </c>
       <c r="V12">
         <v>0.0001561017395888245</v>
       </c>
       <c r="Z12">
-        <v>0.05791538606327428</v>
+        <v>0.05484914611156014</v>
       </c>
       <c r="AB12">
-        <v>371.0105102981217</v>
+        <v>351.3679364242451</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="AD12">
-        <v>371.0105102981217</v>
+        <v>351.3679364242451</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1539,16 +1539,16 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1500390243902439</v>
       </c>
       <c r="V13">
         <v>0.0001601212440695836</v>
       </c>
       <c r="Z13">
-        <v>0.1136668065691175</v>
+        <v>0.1104277179693405</v>
       </c>
       <c r="AB13">
-        <v>709.879611725484</v>
+        <v>689.6506369970006</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="AD13">
-        <v>709.879611725484</v>
+        <v>689.6506369970006</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1463707317073171</v>
       </c>
       <c r="V14">
         <v>0.0001600773150588649</v>
       </c>
       <c r="Z14">
-        <v>0.03749965706042398</v>
+        <v>0.03554035381188628</v>
       </c>
       <c r="AB14">
-        <v>234.259657882407</v>
+        <v>222.0199270509822</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="AD14">
-        <v>234.259657882407</v>
+        <v>222.0199270509822</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1713,16 +1713,16 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1465658536585366</v>
       </c>
       <c r="V15">
         <v>0.0002004041468986119</v>
       </c>
       <c r="Z15">
-        <v>0.149840522053802</v>
+        <v>0.1422008807786601</v>
       </c>
       <c r="AB15">
-        <v>747.6917238125271</v>
+        <v>709.5705502072377</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="AD15">
-        <v>747.6917238125271</v>
+        <v>709.5705502072377</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
@@ -1800,16 +1800,16 @@
         </is>
       </c>
       <c r="T16">
-        <v>0.15444</v>
+        <v>0.1449658536585366</v>
       </c>
       <c r="V16">
         <v>0.0002479133719908628</v>
       </c>
       <c r="Z16">
-        <v>0.1933524129599297</v>
+        <v>0.1814911784620183</v>
       </c>
       <c r="AB16">
-        <v>779.9192573083794</v>
+        <v>732.0749865348427</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="AD16">
-        <v>779.9192573083794</v>
+        <v>732.0749865348427</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
@@ -1887,13 +1887,13 @@
         </is>
       </c>
       <c r="T17">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-0.002984189806522473</v>
+        <v>-0.002983416900589678</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
